--- a/info_excel_month.xlsx
+++ b/info_excel_month.xlsx
@@ -474,154 +474,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="G2">
+      <c r="F2">
         <v>120482</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="G3">
+      <c r="F3">
         <v>177305</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4">
-        <v>380000</v>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>506651</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5">
-        <v>506651</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G6">
+      <c r="F6">
         <v>433739</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info_excel_month.xlsx
+++ b/info_excel_month.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Address</t>
   </si>
@@ -34,76 +34,19 @@
     <t>Price per square meter</t>
   </si>
   <si>
-    <t>Особняк на Нижней Красносельской, 23</t>
-  </si>
-  <si>
-    <t>Особняк на Новоалексеевской, 21</t>
-  </si>
-  <si>
-    <t>Особняк на Плющихе, 9</t>
-  </si>
-  <si>
-    <t>Особняк в Сытинском переулке, 3</t>
-  </si>
-  <si>
-    <t>Особняк на Большой Полянке, 2/10</t>
-  </si>
-  <si>
-    <t>https://osobnyaki.com//na-nigney-krasnoselskoy-23</t>
-  </si>
-  <si>
-    <t>https://osobnyaki.com//na-novoalekseevskoy-21</t>
-  </si>
-  <si>
-    <t>https://osobnyaki.com//na-plyushchihe-9</t>
-  </si>
-  <si>
-    <t>https://osobnyaki.com//v-sitinskom-pereulke-3</t>
-  </si>
-  <si>
-    <t>https://osobnyaki.com//na-bolshoy-polyanke-2-10</t>
-  </si>
-  <si>
-    <t>2021-11-01</t>
-  </si>
-  <si>
-    <t>2021-11-18</t>
-  </si>
-  <si>
-    <t>2021-11-08</t>
-  </si>
-  <si>
-    <t>2021-11-17</t>
-  </si>
-  <si>
-    <t>1245</t>
-  </si>
-  <si>
-    <t>1692</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1239</t>
-  </si>
-  <si>
-    <t>2554</t>
-  </si>
-  <si>
-    <t>150000000</t>
-  </si>
-  <si>
-    <t>300000000</t>
-  </si>
-  <si>
-    <t>380000000</t>
-  </si>
-  <si>
-    <t>627740000</t>
-  </si>
-  <si>
-    <t>1107770000</t>
+    <t>Особняк на Александрова, 18</t>
+  </si>
+  <si>
+    <t>https://osobnyaki.com//na-nikoloyamskoy-49s2</t>
+  </si>
+  <si>
+    <t>2021-11-26</t>
+  </si>
+  <si>
+    <t>1788</t>
+  </si>
+  <si>
+    <t>60067867890</t>
   </si>
 </sst>
 </file>
@@ -474,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,108 +448,24 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>120482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>177305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5">
-        <v>506651</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6">
-        <v>433739</v>
+        <v>54152</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
